--- a/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
+++ b/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <r>
       <t xml:space="preserve">填写须知：
@@ -43,7 +43,8 @@
       <t>1. 请勿修改表格结构；
 2. 标红字段为必填项，黑色字段为选填项；
 3. 填空题的输入占位符为"___"（三个英文下划线）。答卷的时候会把占位符替换为输入框。
-4. 题型要跟题型管理中的题型名称相对应，否则无法导入。</t>
+4. 题型要跟题型管理中的题型名称相对应，否则无法导入。
+5. 组合题的答案处填写包含子题的个数，比如一个大题套5个小题，答案处填5。随后的5个题目就是组合题的子题，子题的题型不能再是组合题。</t>
     </r>
   </si>
   <si>
@@ -177,6 +178,57 @@
   </si>
   <si>
     <t>简答题答案</t>
+  </si>
+  <si>
+    <t>组合题</t>
+  </si>
+  <si>
+    <t>组合题知识点</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>组合题解析</t>
+  </si>
+  <si>
+    <t>组合题大题题目内容</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>子题知识点</t>
+  </si>
+  <si>
+    <t>子题单选题解析</t>
+  </si>
+  <si>
+    <t>子题单选题题目内容</t>
+  </si>
+  <si>
+    <t>子题填空题解析</t>
+  </si>
+  <si>
+    <t>子题填空题题目内容___?</t>
+  </si>
+  <si>
+    <t>子题多选题解析</t>
+  </si>
+  <si>
+    <t>子题多选题题目内容</t>
+  </si>
+  <si>
+    <t>子题判断题解析</t>
+  </si>
+  <si>
+    <t>子题判断题题目内容</t>
+  </si>
+  <si>
+    <t>子题简答题解析</t>
+  </si>
+  <si>
+    <t>子题简答题题目内容</t>
   </si>
 </sst>
 </file>
@@ -1179,13 +1231,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="10.8181818181818" style="2" customWidth="1"/>
@@ -1198,7 +1250,7 @@
     <col min="11" max="11" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="135" customHeight="1" spans="1:11">
+    <row r="1" ht="140" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1422,12 +1474,213 @@
         <v>44</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B8 B1:B6 B9:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>Sheet2!$A$2:$A$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
+++ b/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
@@ -28,9 +28,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">填写须知：
 </t>
     </r>
@@ -147,7 +154,7 @@
     <t>判断题解析</t>
   </si>
   <si>
-    <t>判断题题目内容</t>
+    <t>判断题题目内容1</t>
   </si>
   <si>
     <t>正确</t>
@@ -156,6 +163,9 @@
     <t>错误</t>
   </si>
   <si>
+    <t>判断题题目内容2</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
@@ -222,7 +232,10 @@
     <t>子题判断题解析</t>
   </si>
   <si>
-    <t>子题判断题题目内容</t>
+    <t>子题判断题题目内容1</t>
+  </si>
+  <si>
+    <t>子题判断题题目内容2</t>
   </si>
   <si>
     <t>子题简答题解析</t>
@@ -1234,7 +1247,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:K1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1439,62 +1452,62 @@
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1505,16 +1518,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>14</v>
@@ -1541,16 +1554,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>24</v>
@@ -1564,16 +1577,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>29</v>
@@ -1602,16 +1615,16 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>14</v>
@@ -1631,48 +1644,48 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
+++ b/src/XBLMS.Web/wwwroot/sitefiles/assets/uploadtemplates/题目导入模版.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -238,10 +238,7 @@
     <t>子题判断题题目内容2</t>
   </si>
   <si>
-    <t>子题简答题解析</t>
-  </si>
-  <si>
-    <t>子题简答题题目内容</t>
+    <t>末尾简答题题目内容</t>
   </si>
 </sst>
 </file>
@@ -1673,16 +1670,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>45</v>
